--- a/portfolio_template/portfolio.xlsx
+++ b/portfolio_template/portfolio.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\OneDrive\PET PROJECTS\Al-the-Trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_7EBCB87E1082D1F7837DEA47725D37B3577E973D" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{D7DB0AA3-FB57-41AA-B76A-321B442DE5AE}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_EB3C0BB5DAB3D8799AE116C215E32A55D88B3639" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1116D151-DBAA-426B-AA71-3AAEAE3D26FF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="portfolio" sheetId="3" r:id="rId1"/>
-    <sheet name="watchlist" sheetId="1" r:id="rId2"/>
-    <sheet name="stocks" sheetId="2" r:id="rId3"/>
+    <sheet name="watchlist" sheetId="1" r:id="rId1"/>
+    <sheet name="stocks" sheetId="2" r:id="rId2"/>
+    <sheet name="portfolio" sheetId="3" r:id="rId3"/>
     <sheet name="trades" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>ticker</t>
   </si>
@@ -55,6 +55,9 @@
     <t>last_activity</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>asset</t>
   </si>
   <si>
@@ -64,10 +67,19 @@
     <t>STOCKS</t>
   </si>
   <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>buy_sell</t>
   </si>
   <si>
-    <t>date</t>
+    <t>24/04/2020 12:00:37</t>
+  </si>
+  <si>
+    <t>24/04/2020 12:00:38</t>
   </si>
 </sst>
 </file>
@@ -429,43 +441,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -515,12 +490,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,39 +520,199 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>172.15</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>172.15</v>
+      </c>
+      <c r="E2">
+        <v>45.779323427126151</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>278.98</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>278.98</v>
+      </c>
+      <c r="E3">
+        <v>56.936020348268443</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1252.31</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1252.31</v>
+      </c>
+      <c r="E4">
+        <v>55.252495619286222</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>8295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1703</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8779B27A-E9EE-4629-A1FD-2006C4D58462}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>172.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>278.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1252.31</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>